--- a/translations.xlsx
+++ b/translations.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -526,7 +526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
